--- a/PositionDetails.xlsx
+++ b/PositionDetails.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RolesStructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRA81HC\Desktop\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>positionId</t>
   </si>
@@ -49,6 +49,34 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>P-Res</t>
+  </si>
+  <si>
+    <t>P1 -P2, P2 -P3</t>
+  </si>
+  <si>
+    <t>With people Responsible(EWB)
+With people Responsible(IDN &amp; EWB)</t>
+  </si>
+  <si>
+    <t>SPjM-SW
+SPjM-SW (without ECU-PjMresponsible in Department)
+ECU-PjM</t>
+  </si>
+  <si>
+    <t>P3-P4, P1-P2
+P2-P4</t>
+  </si>
+  <si>
+    <t>Category C, D, E No people Responsible
+Category C, D, E With people Responsible
+Category C, D, E With people Responsible
+Category B With people Responsible</t>
+  </si>
+  <si>
+    <t>SPjM-SW</t>
   </si>
 </sst>
 </file>
@@ -371,13 +399,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -411,6 +444,51 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PositionDetails.xlsx
+++ b/PositionDetails.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRA81HC\Desktop\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRA81HC\Desktop\WorkPlace\Repositories\git\orgchart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>positionId</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>SPjM-SW</t>
+  </si>
+  <si>
+    <t>intridual role</t>
+  </si>
+  <si>
+    <t>entry criteria</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -410,9 +416,11 @@
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="25.81640625" customWidth="1"/>
     <col min="5" max="5" width="26.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -428,8 +436,14 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -446,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,7 +477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="100" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -480,7 +494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
